--- a/SeleniumWebDriverPilot/excel/register.xlsx
+++ b/SeleniumWebDriverPilot/excel/register.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\NIHILENT\Training\testing\SeleniumWebDriverPilot\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\repository\SeleniumWebDriverPilot\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C0FFB13-D008-48AF-AEDA-DBDF682BE55A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0C507F-7026-4CCF-8CAD-A042F13C08D4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>fullname</t>
   </si>
@@ -49,6 +49,18 @@
   </si>
   <si>
     <t>ayu@123</t>
+  </si>
+  <si>
+    <t>rac Wankar</t>
+  </si>
+  <si>
+    <t>rac122345</t>
+  </si>
+  <si>
+    <t>rac1234@gmail.com</t>
+  </si>
+  <si>
+    <t>rac@123</t>
   </si>
 </sst>
 </file>
@@ -377,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,10 +431,26 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{71ACC24F-2A84-4CC0-8465-5F682FA7F26C}"/>
     <hyperlink ref="D2" r:id="rId2" xr:uid="{75C932E8-AB8E-47C2-8AB7-6E45FA532F74}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{27FCE4B9-BDFB-4415-8D43-5D4CABA97B20}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{B27BD810-9A50-450D-8C03-E3F079821B71}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
